--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339588.624015303</v>
+        <v>1443768.258466375</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>280.7601617800815</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>239.1828520871915</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -795,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494268</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4348925031071</v>
+        <v>56.01265088349055</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>186.6104237124463</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>4.422563562285807</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>15.3855909437616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>260.0943654000822</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.6734892200606</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6.48656352172517</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7763380130611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>20.43112068612466</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934771</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>85.55239810998386</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2245,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803301</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2488,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756194</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282048</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>63.38272884730993</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2956,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705822</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>177.6965697803359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>102.7673426709131</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>205.6779548755971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.64713141731118</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1901.535346136986</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1901.535346136986</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4319,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U2" t="n">
-        <v>3084.006981117057</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="V2" t="n">
-        <v>2752.944093773487</v>
+        <v>2678.27451817692</v>
       </c>
       <c r="W2" t="n">
-        <v>2752.944093773487</v>
+        <v>2678.27451817692</v>
       </c>
       <c r="X2" t="n">
-        <v>2752.944093773487</v>
+        <v>2678.27451817692</v>
       </c>
       <c r="Y2" t="n">
-        <v>2362.804761797675</v>
+        <v>2288.135186201108</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216.4463512838067</v>
+        <v>518.4459618444159</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818241</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W4" t="n">
-        <v>444.4359021818241</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="X4" t="n">
-        <v>216.4463512838067</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.4463512838067</v>
+        <v>700.0944266746557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1867.11669882964</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1867.11669882964</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1508.85100022289</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1123.062747624645</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>712.0768428350377</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>297.0043926800342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.3050295353389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>168.3050295353389</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D7" t="n">
-        <v>168.3050295353389</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>168.3050295353389</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>168.3050295353389</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>168.3050295353389</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>349.9534943655786</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>349.9534943655786</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>349.9534943655786</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422265</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481853</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.691971481853</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4834,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993392</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723278</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462198</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486386</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4886,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>657.6489837069648</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>657.6489837069648</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>692.568306022332</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>692.568306022332</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="Y10" t="n">
-        <v>831.0565485757129</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5133,7 +5135,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>948.5505208511906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,49 +5269,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
         <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972543</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>493.2161050975211</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,19 +5533,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143764</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797186</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745235</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038297</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797698</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913445</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913445</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>2854.440648734749</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>3482.038612289356</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>2951.54259528685</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>2782.606412358944</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>2632.489772946608</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>2484.576679364215</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797699</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910805</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570813</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279798</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853356</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580256</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580256</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580256</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>4126.074848401485</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>3871.390360195598</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>3581.973190158637</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>3353.98363926062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>3133.19106011709</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>3007.624207651098</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2857.507568238763</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2857.507568238763</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2710.617620740853</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2543.421521455733</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2401.709690297931</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001555</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4511.341667771992</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.26644111619</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910303</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873342</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975325</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831795</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6695,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,13 +6782,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
         <v>484.8112968429803</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>594.8179559048574</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>446.9048623224643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>446.9048623224643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>279.7087630373442</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,16 +7493,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7630,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7783,19 +7785,19 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>116.6691671648107</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>31.93331737597606</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>146.8157004125032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.30196929556007</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>200.6320762792603</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>39.7088805469582</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,13 +24414,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516689</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>125.5054897610394</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.88310747125561</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>8.661728554218968</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>39.70888054695234</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>37.52737017531081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>46.45968844823091</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25792,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>104.8770068749577</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922068.6358465401</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26320,40 +26322,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062535</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405237</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227861</v>
+        <v>-1017124.324227862</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997317</v>
       </c>
       <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312411</v>
+        <v>63104.93713312375</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.3989404795</v>
+        <v>388517.3989404793</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.398940479</v>
+        <v>388517.3989404793</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404793</v>
+        <v>388517.3989404792</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.398940479</v>
+        <v>388517.3989404794</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432019</v>
+        <v>170986.1965432015</v>
       </c>
       <c r="K6" t="n">
         <v>388517.3989404793</v>
@@ -26552,16 +26554,16 @@
         <v>388517.3989404793</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049674</v>
+        <v>303462.3710049672</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404792</v>
+        <v>388517.3989404793</v>
       </c>
       <c r="O6" t="n">
+        <v>388517.3989404791</v>
+      </c>
+      <c r="P6" t="n">
         <v>388517.3989404793</v>
-      </c>
-      <c r="P6" t="n">
-        <v>388517.3989404792</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.92287984060141</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.81231987171043</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18.81192859552075</v>
+        <v>111.2341702151373</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>107.9973406748742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>140.332451352035</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>366.5447791285002</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>126.1435732559714</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.158490961876709</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>279.7252746838877</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31604,10 +31606,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>493.6049778318548</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>391.9250669264629</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>364.320803524584</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647492</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32812,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,13 +33265,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,22 +33733,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>556.532545233504</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33971,31 +33973,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,7 +34456,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,10 +35254,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6305704175246</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121327</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.3390294385625</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096304</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427309</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36521,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191269</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,13 +36913,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443768.258466375</v>
+        <v>1439755.648452382</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>280.7601617800815</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>100.9770255805155</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494268</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>56.01265088349055</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>129.1762562126533</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>79.79054502264668</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>146.842886239454</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>257.0581595835209</v>
       </c>
       <c r="Y8" t="n">
-        <v>260.0943654000822</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.48656352172517</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812055</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>39.83255574579454</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>85.55239810998386</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8744394430824</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>160.6789846282048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.3645574474256</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195705822</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>31.26260713376574</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.74007641194023</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>26.05480806223585</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1901.535346136986</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1901.535346136986</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.33740552049</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.27451817692</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.27451817692</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X2" t="n">
-        <v>2678.27451817692</v>
+        <v>2080.269059117671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2288.135186201108</v>
+        <v>1690.129727141859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4406,43 +4406,43 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.4459618444159</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C4" t="n">
-        <v>461.8675266085669</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
         <v>163.8377936138381</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962297</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181858</v>
+        <v>790.405938936717</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746557</v>
+        <v>790.405938936717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1645.815527067831</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1287.549828461081</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>901.7615758628365</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>920.887005818185</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4770,7 +4770,7 @@
         <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.5121164321834</v>
@@ -4804,10 +4804,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2271.828903872559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2005.586939522201</v>
+        <v>1881.689571896747</v>
       </c>
     </row>
     <row r="9">
@@ -4886,10 +4886,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574644</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
         <v>66.5121164321834</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>692.568306022332</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>692.568306022332</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>403.1511359853714</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>403.1511359853714</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>403.1511359853714</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400717</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2156.827640693835</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356194</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356194</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,67 +5734,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6013,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2951.54259528685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>2782.606412358944</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2632.489772946608</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2484.576679364215</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4126.074848401485</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3871.390360195598</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3581.973190158637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3353.98363926062</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3133.19106011709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2272.857469997002</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2272.857469997002</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="32">
@@ -6682,10 +6682,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
         <v>484.8112968429803</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2415.384692536053</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2415.384692536053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,37 +7189,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7608,13 +7608,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648107</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>200.6320762792603</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>30.9575407388549</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462276</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>125.5054897610394</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>8.661728554218968</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.49784254931393</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="35">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.6938862346289</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.469330230033</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
   </sheetData>
@@ -26322,28 +26322,28 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26352,10 +26352,10 @@
         <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405237</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1017124.324227862</v>
+        <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997317</v>
+        <v>311620.4214997311</v>
       </c>
       <c r="D6" t="n">
         <v>311620.4214997311</v>
       </c>
       <c r="E6" t="n">
-        <v>63104.93713312375</v>
+        <v>62757.55787876725</v>
       </c>
       <c r="F6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861222</v>
       </c>
       <c r="G6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.019686122</v>
       </c>
       <c r="H6" t="n">
-        <v>388517.3989404792</v>
+        <v>388170.0196861222</v>
       </c>
       <c r="I6" t="n">
-        <v>388517.3989404794</v>
+        <v>388170.0196861222</v>
       </c>
       <c r="J6" t="n">
-        <v>170986.1965432015</v>
+        <v>170638.8172888446</v>
       </c>
       <c r="K6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861222</v>
       </c>
       <c r="L6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861221</v>
       </c>
       <c r="M6" t="n">
-        <v>303462.3710049672</v>
+        <v>303114.9917506104</v>
       </c>
       <c r="N6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861223</v>
       </c>
       <c r="O6" t="n">
-        <v>388517.3989404791</v>
+        <v>388170.0196861223</v>
       </c>
       <c r="P6" t="n">
-        <v>388517.3989404793</v>
+        <v>388170.0196861221</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26798,13 +26798,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>73.92287984060141</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>268.7540750979535</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>111.2341702151373</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>60.5927691187886</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>327.0855007190647</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.772586778758381</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>112.6729410949482</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.1435732559714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>279.7252746838877</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>556.532545233504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949316</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>425.1908331501707</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1439755.648452382</v>
+        <v>1441516.178755167</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>100.9770255805155</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933827</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657078</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>141.7614152959624</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.1762562126533</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>300.3401491857031</v>
       </c>
       <c r="F5" t="n">
-        <v>79.79054502264668</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>44.37321050886694</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>257.0581595835209</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>105.3305008047052</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>104.8913819999791</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>39.83255574579454</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.8744394430824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>107.4021082756239</v>
+        <v>105.6507867899524</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365957</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>77.93612009725524</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>112.1188594237458</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.08971311158706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97427419833815</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>12.74007641194023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>65.25773758188275</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.1447214650597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2080.269059117671</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1690.129727141859</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C4" t="n">
         <v>608.7574741064773</v>
@@ -4485,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>790.405938936717</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.778044008243</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.815527067831</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.549828461081</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="E5" t="n">
-        <v>901.7615758628365</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269323</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008243</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008243</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1495.089731832625</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1126.127214892214</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>767.8615162854633</v>
+        <v>950.1045973369978</v>
       </c>
       <c r="E8" t="n">
-        <v>382.0732636872191</v>
+        <v>564.3163447387535</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>153.330439949146</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2271.828903872559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.689571896747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,52 +5029,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>808.8888553856875</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>639.9526724577806</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>489.8360330454449</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>341.9229394630518</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>990.5373202159273</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>199.7675539570417</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5652,13 +5652,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
         <v>261.0127623330919</v>
@@ -5901,13 +5901,13 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,19 +6010,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6129,22 +6129,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>2273.199413378165</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378165</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172279</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>643.582908441376</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>495.6698148589829</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>348.7798673610725</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7077,16 +7077,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,10 +7189,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433587</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.829365488568</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>883.8931825606608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>733.776543148325</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>585.8634495659319</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>438.9735020680215</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603202</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397315</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360355</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462337</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318807</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>40.09054721822609</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>35.4033308462448</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.9575407388549</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462276</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>110.0033420516644</v>
+        <v>111.7546635373358</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.49784254931393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.40527886852308</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4949402405077</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>65.54986409393069</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.6938862346289</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>45.3794168272091</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465403</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>922068.6358465403</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>922068.6358465402</v>
+        <v>922068.6358465404</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>922068.6358465404</v>
+        <v>922068.6358465402</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
@@ -26334,13 +26334,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
@@ -26349,13 +26349,13 @@
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1017124.324227861</v>
       </c>
       <c r="C6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.4214997313</v>
       </c>
       <c r="D6" t="n">
-        <v>311620.4214997311</v>
+        <v>311620.421499731</v>
       </c>
       <c r="E6" t="n">
-        <v>62757.55787876725</v>
+        <v>63070.19920768774</v>
       </c>
       <c r="F6" t="n">
-        <v>388170.0196861222</v>
+        <v>388482.6610150437</v>
       </c>
       <c r="G6" t="n">
-        <v>388170.019686122</v>
+        <v>388482.6610150439</v>
       </c>
       <c r="H6" t="n">
-        <v>388170.0196861222</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="I6" t="n">
-        <v>388170.0196861222</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="J6" t="n">
-        <v>170638.8172888446</v>
+        <v>170951.4586177662</v>
       </c>
       <c r="K6" t="n">
-        <v>388170.0196861222</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="L6" t="n">
-        <v>388170.0196861221</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="M6" t="n">
-        <v>303114.9917506104</v>
+        <v>303427.6330795315</v>
       </c>
       <c r="N6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150434</v>
       </c>
       <c r="O6" t="n">
-        <v>388170.0196861223</v>
+        <v>388482.6610150435</v>
       </c>
       <c r="P6" t="n">
-        <v>388170.0196861221</v>
+        <v>388482.6610150436</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>287.9210818608662</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>268.7540750979535</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>38.07056488597493</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>60.5927691187886</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>81.59022088655865</v>
       </c>
       <c r="F5" t="n">
-        <v>327.0855007190647</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>366.5485151445865</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>112.6729410949482</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -33183,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
